--- a/DateBase/orders/International Ever Green_2025-10-15.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-15.xlsx
@@ -528,6 +528,9 @@
       <c r="C11" t="str">
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -589,7 +592,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015205205803030200</v>
+        <v>015205205803030205</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-15.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,9 +532,95 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>31</v>
+      </c>
+      <c r="C12" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>32</v>
+      </c>
+      <c r="C15" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>33</v>
+      </c>
+      <c r="C19" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>y</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -592,7 +678,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015205205803030205</v>
+        <v>01520520580303020515151015553220190</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-15.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-15.xlsx
@@ -615,7 +615,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>y</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-15.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-15.xlsx
@@ -617,6 +617,9 @@
       <c r="A21" t="str">
         <v/>
       </c>
+      <c r="C21" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/International Ever Green_2025-10-15.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-15.xlsx
@@ -620,6 +620,9 @@
       <c r="C21" t="str">
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -681,7 +684,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01520520580303020515151015553220190</v>
+        <v>015205205803030205151510155532201920</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-15.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -624,9 +624,60 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>34</v>
+      </c>
+      <c r="C24" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -684,7 +735,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015205205803030205151510155532201920</v>
+        <v>015205205803030205151510155532201920201050502020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-15.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,241 +443,66 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C2" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F2" t="str">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="C5" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
       </c>
       <c r="F5" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>30</v>
-      </c>
       <c r="C6" t="str">
-        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+        <v>455_粉星花_tweedia pink_undefined_1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="C7" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="C8" t="str" xml:space="preserve">
-        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
-white_undefined_1bunch</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
       </c>
       <c r="F8" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="C9" t="str" xml:space="preserve">
-        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
-pink_undefined_1bunch</v>
-      </c>
-      <c r="F9" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="C10" t="str" xml:space="preserve">
-        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
-light purple_undefined_1bunch</v>
-      </c>
-      <c r="F10" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="str">
-        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
-      </c>
-      <c r="F11" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>31</v>
-      </c>
-      <c r="C12" t="str">
-        <v>548_白星花_tweedia white_undefined_1bunch</v>
-      </c>
-      <c r="F12" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F13" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
-        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F14" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>32</v>
-      </c>
-      <c r="C15" t="str">
-        <v>548_白星花_tweedia white_undefined_1bunch</v>
-      </c>
-      <c r="F15" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F16" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="str">
-        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F17" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="str">
-        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
-      </c>
-      <c r="F18" t="str">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>33</v>
-      </c>
-      <c r="C19" t="str">
-        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F19" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F20" t="str">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v/>
-      </c>
-      <c r="C21" t="str">
-        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F21" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F22" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F23" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>34</v>
-      </c>
-      <c r="C24" t="str">
-        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
-      </c>
-      <c r="F24" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
-      </c>
-      <c r="F25" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="str">
-        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
-      </c>
-      <c r="F26" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="str">
-        <v>447_黄金球_craspedia_undefined_1bunch</v>
-      </c>
-      <c r="F27" t="str">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -735,7 +560,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015205205803030205151510155532201920201050502020</v>
+        <v>020152120102035</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-15.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,66 +443,82 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="str">
-        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
       </c>
       <c r="F2" t="str">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>771_美洲茶_undefined_undefined_1bunch</v>
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+        <v>575_迷你菊深粉_undefined_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+        <v>384_奶油向日葵_sunflower cream_undefined_1bunch</v>
       </c>
       <c r="F5" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>455_粉星花_tweedia pink_undefined_1bunch</v>
+        <v>478_绿芯向日葵_sunflower mini_undefined_1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
       <c r="F8" t="str">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F9" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F10" t="str">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -560,7 +576,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020152120102035</v>
+        <v>0510101055401025</v>
       </c>
     </row>
   </sheetData>
